--- a/a.xlsx
+++ b/a.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14051" uniqueCount="7958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14174" uniqueCount="8019">
   <si>
     <t>Nơi gửi</t>
   </si>
@@ -23967,6 +23967,189 @@
   </si>
   <si>
     <t>CÔNG TY TNHH TMDV THẠCH HÀO</t>
+  </si>
+  <si>
+    <t>0402085927</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TRÌNH KHUÊ</t>
+  </si>
+  <si>
+    <t>3737/CSĐT-KT-Đ2</t>
+  </si>
+  <si>
+    <t>Công an TP Đà Nẵng</t>
+  </si>
+  <si>
+    <t>0401806799</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH HOÀN THIÊN ÂN</t>
+  </si>
+  <si>
+    <t>Công an TP Quảng Ninh</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TMDV KINH DOANH HOÀNG HẢI</t>
+  </si>
+  <si>
+    <t>1438/Chi cục Thuế khu vực-KTr3</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XDTM VÀ DỊCH VỤ AN LỘC</t>
+  </si>
+  <si>
+    <t>263/Chi cục Thuế-KT</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬT LIỆU XÂY DỰNG NHƯ TUYỀN</t>
+  </si>
+  <si>
+    <t>219/Chi cục Thuế khu vực-Ktr</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực 4 - Chi cục Thuế Đồng Tháp</t>
+  </si>
+  <si>
+    <t>0315684201</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM DV QUẢNG CÁO VIỆT THIÊN ANH</t>
+  </si>
+  <si>
+    <t>đội Thuế quận 3</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ XÂY DỰNG PHƯỚC VÕ</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XUẤT NHẬP KHẨU THƯƠNG MẠI VẬN TẢI VIỆT CAM THÁI</t>
+  </si>
+  <si>
+    <t>428/Chi cục Thuế khu vực20-QLDN1</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực XX</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TÙNG LÂM 998</t>
+  </si>
+  <si>
+    <t>1465/đội ThuếBGI-QLDN</t>
+  </si>
+  <si>
+    <t>0102385623-063</t>
+  </si>
+  <si>
+    <t>Công ty Bảo hiểm Mic Quảng Nam</t>
+  </si>
+  <si>
+    <t>2218/Chi cục ThuếVKV.XII-TTKT4-QNA</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực XII</t>
+  </si>
+  <si>
+    <t>348/Chi cục Thuế khu vực.XVI-QLDN1</t>
+  </si>
+  <si>
+    <t>Chi cục ThuếKC XVI</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực XIII</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực XII - Tam Kỳ</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực XV</t>
+  </si>
+  <si>
+    <t>727/Chi cục Thuế khu vực15-TTKT1-NTH</t>
+  </si>
+  <si>
+    <t>đội Thuếliên huyện Sông Lam II</t>
+  </si>
+  <si>
+    <t>đội Thuế liên huyện Biên Hòa - Vĩnh Cửu</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế liên huyện Tam Kỳ - Núi Thành - Phú Ninh</t>
+  </si>
+  <si>
+    <t>599/Chi cục Thuế khu vực06-QLDN2</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Lê</t>
+  </si>
+  <si>
+    <t>đội Thuế liên huyện Điện Bàn - Duy Xuyên - Hội An</t>
+  </si>
+  <si>
+    <t>Đội Thuế liên huyện Hương Phú</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MAY MẶC TÂN XUÂN</t>
+  </si>
+  <si>
+    <t>306/đội Thuế-QLDN 1</t>
+  </si>
+  <si>
+    <t>Đôị thuế liên huyện Bắc Nghệ I</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN TMDV XÂY DỰNG CÔNG TRÌNH GIAO THÔNG 108</t>
+  </si>
+  <si>
+    <t>3574/Chi cục Thuế khu vực18-QLDN2</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI MINH HIỆN</t>
+  </si>
+  <si>
+    <t>265/Chi cục Thuế khu vực.XIX-QLDN4</t>
+  </si>
+  <si>
+    <t>0312778620</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ LEVIS</t>
+  </si>
+  <si>
+    <t>438/QU7-QLDn2</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực II đội Thuế Q7-Nhà Bè</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TMDV THU PHƯƠNG VN</t>
+  </si>
+  <si>
+    <t>4160/TB-TAN</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực XVIII đội Thuế TP Thuận An</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TƯ VẤN THIẾT KẾ VÀ XÂY DỰNG HUY KHOA</t>
+  </si>
+  <si>
+    <t>73/Tcơ sở9-QLDN1</t>
+  </si>
+  <si>
+    <t>Thuế thành phố Đà Nẵng - Thuế cơ sở 9</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN PHI HIỀN</t>
+  </si>
+  <si>
+    <t>1461/Tcơ sở3-KTR1</t>
+  </si>
+  <si>
+    <t>Thuế tỉnh Đồng Nai</t>
+  </si>
+  <si>
+    <t>Chi cục Thuế khu vực 14</t>
   </si>
 </sst>
 </file>
@@ -25284,8 +25467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3182" workbookViewId="0">
+      <selection activeCell="B3192" sqref="B3192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -78640,277 +78823,667 @@
       </c>
     </row>
     <row r="3193" spans="1:5">
-      <c r="A3193" s="52"/>
-      <c r="B3193" s="53"/>
-      <c r="C3193" s="51"/>
-      <c r="D3193" s="78"/>
-      <c r="E3193" s="51"/>
+      <c r="A3193" s="52" t="s">
+        <v>7958</v>
+      </c>
+      <c r="B3193" s="53" t="s">
+        <v>7959</v>
+      </c>
+      <c r="C3193" s="51" t="s">
+        <v>7960</v>
+      </c>
+      <c r="D3193" s="78">
+        <v>45810</v>
+      </c>
+      <c r="E3193" s="51" t="s">
+        <v>7961</v>
+      </c>
     </row>
     <row r="3194" spans="1:5">
-      <c r="A3194" s="52"/>
-      <c r="B3194" s="20"/>
-      <c r="C3194" s="51"/>
-      <c r="D3194" s="78"/>
-      <c r="E3194" s="51"/>
+      <c r="A3194" s="52" t="s">
+        <v>7962</v>
+      </c>
+      <c r="B3194" s="20" t="s">
+        <v>7963</v>
+      </c>
+      <c r="C3194" s="51" t="s">
+        <v>7960</v>
+      </c>
+      <c r="D3194" s="78">
+        <v>45810</v>
+      </c>
+      <c r="E3194" s="51" t="s">
+        <v>7961</v>
+      </c>
     </row>
     <row r="3195" spans="1:5">
-      <c r="A3195" s="52"/>
-      <c r="B3195" s="20"/>
-      <c r="C3195" s="51"/>
-      <c r="D3195" s="78"/>
-      <c r="E3195" s="51"/>
+      <c r="A3195" s="52">
+        <v>5701960222</v>
+      </c>
+      <c r="B3195" s="20" t="s">
+        <v>5755</v>
+      </c>
+      <c r="C3195" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3195" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3195" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3196" spans="1:5">
-      <c r="A3196" s="52"/>
-      <c r="B3196" s="20"/>
-      <c r="C3196" s="51"/>
-      <c r="D3196" s="78"/>
-      <c r="E3196" s="51"/>
+      <c r="A3196" s="52">
+        <v>5702063930</v>
+      </c>
+      <c r="B3196" s="20" t="s">
+        <v>5757</v>
+      </c>
+      <c r="C3196" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3196" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3196" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3197" spans="1:5">
-      <c r="A3197" s="52"/>
-      <c r="B3197" s="20"/>
-      <c r="C3197" s="51"/>
-      <c r="D3197" s="78"/>
-      <c r="E3197" s="51"/>
+      <c r="A3197" s="52">
+        <v>5702066427</v>
+      </c>
+      <c r="B3197" s="20" t="s">
+        <v>5759</v>
+      </c>
+      <c r="C3197" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3197" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3197" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3198" spans="1:5">
-      <c r="A3198" s="52"/>
-      <c r="B3198" s="20"/>
-      <c r="C3198" s="51"/>
-      <c r="D3198" s="78"/>
-      <c r="E3198" s="51"/>
+      <c r="A3198" s="52">
+        <v>5702077605</v>
+      </c>
+      <c r="B3198" s="20" t="s">
+        <v>5761</v>
+      </c>
+      <c r="C3198" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3198" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3198" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3199" spans="1:5">
-      <c r="A3199" s="52"/>
-      <c r="B3199" s="20"/>
-      <c r="C3199" s="51"/>
-      <c r="D3199" s="78"/>
-      <c r="E3199" s="51"/>
+      <c r="A3199" s="52">
+        <v>5702089921</v>
+      </c>
+      <c r="B3199" s="20" t="s">
+        <v>5763</v>
+      </c>
+      <c r="C3199" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3199" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3199" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3200" spans="1:5">
-      <c r="A3200" s="52"/>
-      <c r="B3200" s="53"/>
-      <c r="C3200" s="51"/>
-      <c r="D3200" s="78"/>
-      <c r="E3200" s="51"/>
+      <c r="A3200" s="52">
+        <v>5702091896</v>
+      </c>
+      <c r="B3200" s="53" t="s">
+        <v>5769</v>
+      </c>
+      <c r="C3200" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3200" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3200" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3201" spans="1:5">
-      <c r="A3201" s="52"/>
-      <c r="B3201" s="20"/>
-      <c r="C3201" s="51"/>
-      <c r="D3201" s="78"/>
-      <c r="E3201" s="51"/>
+      <c r="A3201" s="52">
+        <v>5702108973</v>
+      </c>
+      <c r="B3201" s="20" t="s">
+        <v>5765</v>
+      </c>
+      <c r="C3201" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3201" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3201" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3202" spans="1:5">
-      <c r="A3202" s="52"/>
-      <c r="B3202" s="53"/>
-      <c r="C3202" s="51"/>
-      <c r="D3202" s="78"/>
-      <c r="E3202" s="51"/>
+      <c r="A3202" s="52">
+        <v>5702114864</v>
+      </c>
+      <c r="B3202" s="53" t="s">
+        <v>5771</v>
+      </c>
+      <c r="C3202" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3202" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3202" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3203" spans="1:5">
-      <c r="A3203" s="52"/>
-      <c r="B3203" s="20"/>
-      <c r="C3203" s="51"/>
-      <c r="D3203" s="78"/>
-      <c r="E3203" s="51"/>
+      <c r="A3203" s="52">
+        <v>5702121614</v>
+      </c>
+      <c r="B3203" s="20" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C3203" s="51" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3203" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3203" s="51" t="s">
+        <v>7964</v>
+      </c>
     </row>
     <row r="3204" spans="1:5">
-      <c r="A3204" s="52"/>
-      <c r="B3204" s="20"/>
-      <c r="C3204" s="51"/>
-      <c r="D3204" s="78"/>
-      <c r="E3204" s="51"/>
+      <c r="A3204" s="52">
+        <v>3603967674</v>
+      </c>
+      <c r="B3204" s="20" t="s">
+        <v>7965</v>
+      </c>
+      <c r="C3204" s="51" t="s">
+        <v>7966</v>
+      </c>
+      <c r="D3204" s="78">
+        <v>45726</v>
+      </c>
+      <c r="E3204" s="51" t="s">
+        <v>4564</v>
+      </c>
     </row>
     <row r="3205" spans="1:5">
-      <c r="A3205" s="52"/>
-      <c r="B3205" s="53"/>
-      <c r="C3205" s="51"/>
-      <c r="D3205" s="78"/>
-      <c r="E3205" s="51"/>
+      <c r="A3205" s="52">
+        <v>2803070801</v>
+      </c>
+      <c r="B3205" s="53" t="s">
+        <v>7967</v>
+      </c>
+      <c r="C3205" s="51" t="s">
+        <v>7968</v>
+      </c>
+      <c r="D3205" s="78">
+        <v>45729</v>
+      </c>
+      <c r="E3205" s="51" t="s">
+        <v>5633</v>
+      </c>
     </row>
     <row r="3206" spans="1:5">
-      <c r="A3206" s="52"/>
-      <c r="B3206" s="20"/>
-      <c r="C3206" s="51"/>
-      <c r="D3206" s="78"/>
-      <c r="E3206" s="51"/>
+      <c r="A3206" s="52">
+        <v>1402161496</v>
+      </c>
+      <c r="B3206" s="20" t="s">
+        <v>7969</v>
+      </c>
+      <c r="C3206" s="51" t="s">
+        <v>7970</v>
+      </c>
+      <c r="D3206" s="78">
+        <v>45726</v>
+      </c>
+      <c r="E3206" s="51" t="s">
+        <v>7971</v>
+      </c>
     </row>
     <row r="3207" spans="1:5">
-      <c r="A3207" s="52"/>
-      <c r="B3207" s="20"/>
-      <c r="C3207" s="51"/>
-      <c r="D3207" s="78"/>
-      <c r="E3207" s="51"/>
+      <c r="A3207" s="52" t="s">
+        <v>7972</v>
+      </c>
+      <c r="B3207" s="20" t="s">
+        <v>7973</v>
+      </c>
+      <c r="C3207" s="51" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D3207" s="78">
+        <v>45751</v>
+      </c>
+      <c r="E3207" s="51" t="s">
+        <v>7974</v>
+      </c>
     </row>
     <row r="3208" spans="1:5">
-      <c r="A3208" s="52"/>
-      <c r="B3208" s="20"/>
-      <c r="C3208" s="51"/>
-      <c r="D3208" s="78"/>
-      <c r="E3208" s="51"/>
+      <c r="A3208" s="52" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B3208" s="20" t="s">
+        <v>7975</v>
+      </c>
+      <c r="C3208" s="51" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D3208" s="78">
+        <v>45751</v>
+      </c>
+      <c r="E3208" s="51" t="s">
+        <v>7974</v>
+      </c>
     </row>
     <row r="3209" spans="1:5">
-      <c r="A3209" s="52"/>
-      <c r="B3209" s="53"/>
-      <c r="C3209" s="51"/>
-      <c r="D3209" s="78"/>
-      <c r="E3209" s="51"/>
+      <c r="A3209" s="52">
+        <v>1702285943</v>
+      </c>
+      <c r="B3209" s="53" t="s">
+        <v>7976</v>
+      </c>
+      <c r="C3209" s="51" t="s">
+        <v>7977</v>
+      </c>
+      <c r="D3209" s="78">
+        <v>45785</v>
+      </c>
+      <c r="E3209" s="51" t="s">
+        <v>7978</v>
+      </c>
     </row>
     <row r="3210" spans="1:5">
-      <c r="A3210" s="52"/>
-      <c r="B3210" s="20"/>
-      <c r="C3210" s="51"/>
-      <c r="D3210" s="78"/>
-      <c r="E3210" s="51"/>
+      <c r="A3210" s="52">
+        <v>2400812112</v>
+      </c>
+      <c r="B3210" s="20" t="s">
+        <v>7979</v>
+      </c>
+      <c r="C3210" s="51" t="s">
+        <v>7980</v>
+      </c>
+      <c r="D3210" s="78">
+        <v>45782</v>
+      </c>
+      <c r="E3210" s="51" t="s">
+        <v>6123</v>
+      </c>
     </row>
     <row r="3211" spans="1:5">
-      <c r="A3211" s="52"/>
-      <c r="B3211" s="20"/>
-      <c r="C3211" s="51"/>
-      <c r="D3211" s="78"/>
-      <c r="E3211" s="51"/>
+      <c r="A3211" s="52" t="s">
+        <v>7981</v>
+      </c>
+      <c r="B3211" s="20" t="s">
+        <v>7982</v>
+      </c>
+      <c r="C3211" s="51" t="s">
+        <v>7983</v>
+      </c>
+      <c r="D3211" s="78">
+        <v>45791</v>
+      </c>
+      <c r="E3211" s="51" t="s">
+        <v>7984</v>
+      </c>
     </row>
     <row r="3212" spans="1:5">
-      <c r="A3212" s="52"/>
-      <c r="B3212" s="20"/>
-      <c r="C3212" s="51"/>
-      <c r="D3212" s="78"/>
-      <c r="E3212" s="51"/>
+      <c r="A3212" s="52">
+        <v>3703182905</v>
+      </c>
+      <c r="B3212" s="20" t="s">
+        <v>5909</v>
+      </c>
+      <c r="C3212" s="51" t="s">
+        <v>7985</v>
+      </c>
+      <c r="D3212" s="78">
+        <v>45790</v>
+      </c>
+      <c r="E3212" s="51" t="s">
+        <v>7986</v>
+      </c>
     </row>
     <row r="3213" spans="1:5">
-      <c r="A3213" s="52"/>
-      <c r="B3213" s="20"/>
-      <c r="C3213" s="51"/>
-      <c r="D3213" s="78"/>
-      <c r="E3213" s="51"/>
+      <c r="A3213" s="52">
+        <v>4401116993</v>
+      </c>
+      <c r="B3213" s="20" t="s">
+        <v>5928</v>
+      </c>
+      <c r="C3213" s="51" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3213" s="78">
+        <v>45786</v>
+      </c>
+      <c r="E3213" s="51" t="s">
+        <v>7987</v>
+      </c>
     </row>
     <row r="3214" spans="1:5">
-      <c r="A3214" s="52"/>
-      <c r="B3214" s="53"/>
-      <c r="C3214" s="51"/>
-      <c r="D3214" s="78"/>
-      <c r="E3214" s="51"/>
+      <c r="A3214" s="52">
+        <v>4000726222</v>
+      </c>
+      <c r="B3214" s="53" t="s">
+        <v>5913</v>
+      </c>
+      <c r="C3214" s="51" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3214" s="78">
+        <v>45796</v>
+      </c>
+      <c r="E3214" s="51" t="s">
+        <v>7988</v>
+      </c>
     </row>
     <row r="3215" spans="1:5">
-      <c r="A3215" s="52"/>
-      <c r="B3215" s="20"/>
-      <c r="C3215" s="51"/>
-      <c r="D3215" s="78"/>
-      <c r="E3215" s="51"/>
+      <c r="A3215" s="52">
+        <v>4001218630</v>
+      </c>
+      <c r="B3215" s="20" t="s">
+        <v>5916</v>
+      </c>
+      <c r="C3215" s="51" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3215" s="78">
+        <v>45797</v>
+      </c>
+      <c r="E3215" s="51" t="s">
+        <v>7988</v>
+      </c>
     </row>
     <row r="3216" spans="1:5">
-      <c r="A3216" s="52"/>
-      <c r="B3216" s="53"/>
-      <c r="C3216" s="51"/>
-      <c r="D3216" s="78"/>
-      <c r="E3216" s="51"/>
+      <c r="A3216" s="52">
+        <v>3603757194</v>
+      </c>
+      <c r="B3216" s="53" t="s">
+        <v>5905</v>
+      </c>
+      <c r="C3216" s="51" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3216" s="78">
+        <v>45791</v>
+      </c>
+      <c r="E3216" s="51" t="s">
+        <v>7989</v>
+      </c>
     </row>
     <row r="3217" spans="1:5">
-      <c r="A3217" s="52"/>
-      <c r="B3217" s="53"/>
-      <c r="C3217" s="51"/>
-      <c r="D3217" s="78"/>
-      <c r="E3217" s="51"/>
+      <c r="A3217" s="52">
+        <v>4500643077</v>
+      </c>
+      <c r="B3217" s="53" t="s">
+        <v>5932</v>
+      </c>
+      <c r="C3217" s="51" t="s">
+        <v>7990</v>
+      </c>
+      <c r="D3217" s="78">
+        <v>45806</v>
+      </c>
+      <c r="E3217" s="51" t="s">
+        <v>7989</v>
+      </c>
     </row>
     <row r="3218" spans="1:5">
-      <c r="A3218" s="52"/>
-      <c r="B3218" s="53"/>
-      <c r="C3218" s="51"/>
-      <c r="D3218" s="78"/>
-      <c r="E3218" s="51"/>
+      <c r="A3218" s="52">
+        <v>2901860170</v>
+      </c>
+      <c r="B3218" s="53" t="s">
+        <v>5889</v>
+      </c>
+      <c r="C3218" s="51" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3218" s="78">
+        <v>45806</v>
+      </c>
+      <c r="E3218" s="51" t="s">
+        <v>7991</v>
+      </c>
     </row>
     <row r="3219" spans="1:5">
-      <c r="A3219" s="52"/>
-      <c r="B3219" s="53"/>
-      <c r="C3219" s="51"/>
-      <c r="D3219" s="78"/>
-      <c r="E3219" s="51"/>
+      <c r="A3219" s="52">
+        <v>3603757194</v>
+      </c>
+      <c r="B3219" s="53" t="s">
+        <v>5905</v>
+      </c>
+      <c r="C3219" s="51" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3219" s="78">
+        <v>45791</v>
+      </c>
+      <c r="E3219" s="51" t="s">
+        <v>7992</v>
+      </c>
     </row>
     <row r="3220" spans="1:5">
-      <c r="A3220" s="52"/>
-      <c r="B3220" s="53"/>
-      <c r="C3220" s="51"/>
-      <c r="D3220" s="78"/>
-      <c r="E3220" s="51"/>
+      <c r="A3220" s="52">
+        <v>4001242658</v>
+      </c>
+      <c r="B3220" s="53" t="s">
+        <v>5920</v>
+      </c>
+      <c r="C3220" s="51" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3220" s="78">
+        <v>45804</v>
+      </c>
+      <c r="E3220" s="51" t="s">
+        <v>7993</v>
+      </c>
     </row>
     <row r="3221" spans="1:5">
-      <c r="A3221" s="52"/>
-      <c r="B3221" s="53"/>
-      <c r="C3221" s="51"/>
-      <c r="D3221" s="78"/>
-      <c r="E3221" s="51"/>
+      <c r="A3221" s="52">
+        <v>4900921113</v>
+      </c>
+      <c r="B3221" s="53" t="s">
+        <v>5936</v>
+      </c>
+      <c r="C3221" s="51" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D3221" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3221" s="51" t="s">
+        <v>6123</v>
+      </c>
     </row>
     <row r="3222" spans="1:5">
-      <c r="A3222" s="52"/>
-      <c r="B3222" s="20"/>
-      <c r="C3222" s="51"/>
-      <c r="D3222" s="78"/>
-      <c r="E3222" s="51"/>
+      <c r="A3222" s="52">
+        <v>8265523923</v>
+      </c>
+      <c r="B3222" s="20" t="s">
+        <v>7995</v>
+      </c>
+      <c r="C3222" s="51" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3222" s="78">
+        <v>45821</v>
+      </c>
+      <c r="E3222" s="51" t="s">
+        <v>7996</v>
+      </c>
     </row>
     <row r="3223" spans="1:5">
-      <c r="A3223" s="52"/>
-      <c r="B3223" s="20"/>
-      <c r="C3223" s="51"/>
-      <c r="D3223" s="78"/>
-      <c r="E3223" s="51"/>
+      <c r="A3223" s="52">
+        <v>3301733951</v>
+      </c>
+      <c r="B3223" s="20" t="s">
+        <v>5897</v>
+      </c>
+      <c r="C3223" s="51" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3223" s="78">
+        <v>45824</v>
+      </c>
+      <c r="E3223" s="51" t="s">
+        <v>7997</v>
+      </c>
     </row>
     <row r="3224" spans="1:5">
-      <c r="A3224" s="52"/>
-      <c r="B3224" s="20"/>
-      <c r="C3224" s="51"/>
-      <c r="D3224" s="78"/>
-      <c r="E3224" s="51"/>
+      <c r="A3224" s="52">
+        <v>2902104385</v>
+      </c>
+      <c r="B3224" s="20" t="s">
+        <v>7998</v>
+      </c>
+      <c r="C3224" s="51" t="s">
+        <v>7999</v>
+      </c>
+      <c r="D3224" s="78">
+        <v>45832</v>
+      </c>
+      <c r="E3224" s="51" t="s">
+        <v>8000</v>
+      </c>
     </row>
     <row r="3225" spans="1:5">
-      <c r="A3225" s="52"/>
-      <c r="B3225" s="53"/>
-      <c r="C3225" s="51"/>
-      <c r="D3225" s="78"/>
-      <c r="E3225" s="51"/>
+      <c r="A3225" s="52">
+        <v>1301137345</v>
+      </c>
+      <c r="B3225" s="53" t="s">
+        <v>8001</v>
+      </c>
+      <c r="C3225" s="51" t="s">
+        <v>8002</v>
+      </c>
+      <c r="D3225" s="78">
+        <v>45832</v>
+      </c>
+      <c r="E3225" s="51" t="s">
+        <v>5883</v>
+      </c>
     </row>
     <row r="3226" spans="1:5">
-      <c r="A3226" s="52"/>
-      <c r="B3226" s="20"/>
-      <c r="C3226" s="51"/>
-      <c r="D3226" s="78"/>
-      <c r="E3226" s="51"/>
+      <c r="A3226" s="52">
+        <v>6300330183</v>
+      </c>
+      <c r="B3226" s="20" t="s">
+        <v>8003</v>
+      </c>
+      <c r="C3226" s="51" t="s">
+        <v>8004</v>
+      </c>
+      <c r="D3226" s="78">
+        <v>45835</v>
+      </c>
+      <c r="E3226" s="51" t="s">
+        <v>6142</v>
+      </c>
     </row>
     <row r="3227" spans="1:5">
-      <c r="A3227" s="52"/>
-      <c r="B3227" s="20"/>
-      <c r="C3227" s="51"/>
-      <c r="D3227" s="78"/>
-      <c r="E3227" s="51"/>
+      <c r="A3227" s="52" t="s">
+        <v>8005</v>
+      </c>
+      <c r="B3227" s="20" t="s">
+        <v>8006</v>
+      </c>
+      <c r="C3227" s="51" t="s">
+        <v>8007</v>
+      </c>
+      <c r="D3227" s="78">
+        <v>45796</v>
+      </c>
+      <c r="E3227" s="51" t="s">
+        <v>8008</v>
+      </c>
     </row>
     <row r="3228" spans="1:5">
-      <c r="A3228" s="52"/>
-      <c r="B3228" s="20"/>
-      <c r="C3228" s="51"/>
-      <c r="D3228" s="78"/>
-      <c r="E3228" s="51"/>
+      <c r="A3228" s="52">
+        <v>3703286809</v>
+      </c>
+      <c r="B3228" s="20" t="s">
+        <v>8009</v>
+      </c>
+      <c r="C3228" s="51" t="s">
+        <v>8010</v>
+      </c>
+      <c r="D3228" s="78">
+        <v>45799</v>
+      </c>
+      <c r="E3228" s="51" t="s">
+        <v>8011</v>
+      </c>
     </row>
     <row r="3229" spans="1:5">
-      <c r="A3229" s="52"/>
-      <c r="B3229" s="20"/>
-      <c r="C3229" s="51"/>
-      <c r="D3229" s="78"/>
-      <c r="E3229" s="51"/>
+      <c r="A3229" s="52">
+        <v>4001033076</v>
+      </c>
+      <c r="B3229" s="20" t="s">
+        <v>8012</v>
+      </c>
+      <c r="C3229" s="51" t="s">
+        <v>8013</v>
+      </c>
+      <c r="D3229" s="78">
+        <v>45847</v>
+      </c>
+      <c r="E3229" s="51" t="s">
+        <v>8014</v>
+      </c>
     </row>
     <row r="3230" spans="1:5">
-      <c r="A3230" s="52"/>
-      <c r="B3230" s="20"/>
-      <c r="C3230" s="51"/>
-      <c r="D3230" s="78"/>
-      <c r="E3230" s="51"/>
+      <c r="A3230" s="52">
+        <v>3603305102</v>
+      </c>
+      <c r="B3230" s="20" t="s">
+        <v>8015</v>
+      </c>
+      <c r="C3230" s="51" t="s">
+        <v>8016</v>
+      </c>
+      <c r="D3230" s="78">
+        <v>45860</v>
+      </c>
+      <c r="E3230" s="51" t="s">
+        <v>8017</v>
+      </c>
     </row>
     <row r="3231" spans="1:5">
-      <c r="A3231" s="16"/>
-      <c r="B3231" s="20"/>
-      <c r="C3231" s="51"/>
-      <c r="D3231" s="78"/>
-      <c r="E3231" s="51"/>
+      <c r="A3231" s="16">
+        <v>6101298993</v>
+      </c>
+      <c r="B3231" s="20" t="s">
+        <v>6129</v>
+      </c>
+      <c r="C3231" s="51" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3231" s="78">
+        <v>45798</v>
+      </c>
+      <c r="E3231" s="51" t="s">
+        <v>8018</v>
+      </c>
     </row>
     <row r="3232" spans="1:5">
       <c r="A3232" s="52"/>
